--- a/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>54,87; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>53,73; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,69%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>65,98; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>66,83; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>79,73; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>84,2; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>88,34; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>96,39; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>88,87; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>89,13; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>83,26; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>90,44; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>90,83; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>92,47; 99,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>94,53; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>91,75; 99,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,87; 99,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,74; 99,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>96,51; 99,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>94,31; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,72%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,87; 100,0</t>
+          <t>84,46; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>67,48; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>96,1; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 100,0</t>
+          <t>90,53; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>77,54; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>79,73; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,39; 100</t>
+          <t>84,2; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,98; 100,0</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>88,34; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,83; 100,0</t>
+          <t>96,39; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,73; 100,0</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,2; 100,0</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,86; 100</t>
+          <t>88,87; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,84; 100</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,34; 100,0</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,69; 100</t>
+          <t>89,13; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96,39; 100</t>
+          <t>95,34; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,42 +1015,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>83,26; 100,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>89,47; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>84,31; 100</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>90,44; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,87; 100,0</t>
+          <t>90,83; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100</t>
+          <t>92,47; 99,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,13; 100,0</t>
+          <t>94,53; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,26; 100,0</t>
+          <t>91,75; 99,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,44; 100,0</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>90,83; 100,0</t>
+          <t>95,87; 99,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,22; 100</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,47; 99,11</t>
+          <t>95,74; 99,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,53; 100,0</t>
+          <t>96,51; 99,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>94,31; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>97,14%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>98,69%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,46%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>98,68%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>98,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>98,85%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>91,75; 99,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>96,96; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>95,93; 100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>95,68; 100,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>95,87; 99,51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>93,46; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>95,74; 99,31</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>96,51; 99,64</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>94,31; 100,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -705,12 +706,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,46; 100,0</t>
+          <t>82,29; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,48; 100,0</t>
+          <t>68,12; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +721,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,53; 100,0</t>
+          <t>86,92; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77,54; 100,0</t>
+          <t>75,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,73; 100,0</t>
+          <t>79,79; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,2; 100,0</t>
+          <t>85,54; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,34; 100,0</t>
+          <t>88,77; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,87; 100,0</t>
+          <t>86,03; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,13; 100,0</t>
+          <t>90,29; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,26; 100,0</t>
+          <t>83,49; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,44; 100,0</t>
+          <t>93,21; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,83; 100,0</t>
+          <t>92,25; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,47; 99,11</t>
+          <t>91,91; 99,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,53; 100,0</t>
+          <t>93,95; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,15</t>
+          <t>91,57; 99,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,68; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,87; 99,51</t>
+          <t>95,58; 99,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,46; 100,0</t>
+          <t>92,17; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,31</t>
+          <t>95,59; 99,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>96,51; 99,64</t>
+          <t>96,78; 99,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>94,31; 100,0</t>
+          <t>95,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el reuma fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20352</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12434</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25846</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35910</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46198</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48344</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31462</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18593; 20352</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10630; 12434</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7115; 8756</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24087; 25846</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30490; 37050</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16662; 24459</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>44395; 46198</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43010; 49484</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24918; 33215</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24846</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24239</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15135</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43965</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65423</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40617</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68811</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89662</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55753</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20676; 25913</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22235; 24239</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13448; 15135</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38735; 45285</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63370; 65423</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>38521; 40617</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63206; 71198</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>87592; 89662</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53741; 55753</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14047</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35821</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29733</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58606</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49869</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15262; 17059</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11843; 14047</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11463; 13250</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39700; 41546</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31675; 36820</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27710; 29733</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56737; 58606</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45928; 50868</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40981; 42984</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30306</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18743</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8054</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57924</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66182</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37498</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>88230</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>84925</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45551</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26691; 31969</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16768; 18743</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6383; 8054</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54860; 58855</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62017; 67225</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35330; 37498</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>83479; 90007</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80765; 85968</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43428; 45551</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>92562</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>69463</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>169281</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>203337</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>130554</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>261843</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>272799</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>175749</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>87256; 94476</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67352; 69463</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43357; 45195</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>163263; 171532</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>197384; 205503</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>121943; 132307</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>255048; 265014</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>267088; 274978</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>169480; 177502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>